--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sasha\Desktop\Саша!\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University\Diplom\Program\LiveChat2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F2AB398-ADCA-42B0-8D3B-F1F2BA10DB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A327C054-4DB5-4FEF-8B16-153893696B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A570DC0-D77B-4472-97DD-E1455CC462D9}"/>
   </bookViews>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,15 +38,9 @@
     <t>Test case</t>
   </si>
   <si>
-    <t>ER</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>User enters a name in the chat field</t>
   </si>
   <si>
@@ -232,6 +225,12 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -293,7 +292,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -313,18 +312,18 @@
   <autoFilter ref="A1:D123" xr:uid="{126F8339-5512-4996-A585-37EF12C14156}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0050D105-DF3D-48B9-86A5-5C505146CEC1}" name="Test case"/>
-    <tableColumn id="2" xr3:uid="{C7A3C38F-ED66-4129-92C7-E7514F2733D9}" name="ER"/>
+    <tableColumn id="2" xr3:uid="{C7A3C38F-ED66-4129-92C7-E7514F2733D9}" name="Expected Behavior"/>
     <tableColumn id="3" xr3:uid="{22F5A663-C5C1-4AED-B363-5EA789A80DBA}" name="Priority"/>
-    <tableColumn id="4" xr3:uid="{E16724AF-50BC-45FF-894F-B199358E3128}" name="Status"/>
+    <tableColumn id="4" xr3:uid="{E16724AF-50BC-45FF-894F-B199358E3128}" name="Result"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,15 +619,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A579158-2714-49E8-A39B-0F204FA7F6BB}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.9140625" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="0.25" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -637,475 +636,475 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="101.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
